--- a/rapport journalier/Rapport journalier.xlsx
+++ b/rapport journalier/Rapport journalier.xlsx
@@ -1,55 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="8">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
   <si>
-    <t>JOUR:</t>
+    <t xml:space="preserve">JOUR:</t>
   </si>
   <si>
-    <t>NOM:</t>
+    <t xml:space="preserve">NOM:</t>
   </si>
   <si>
-    <t>FUNTIONALITE :</t>
+    <t xml:space="preserve">FUNTIONALITE :</t>
   </si>
   <si>
-    <t>DIFICULTE:</t>
+    <t xml:space="preserve">formulaire d’inscription pet sitter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmed Mehdi Elmeksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFICULTE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aucune presque</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-    </font>
-    <font/>
-    <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -57,333 +110,283 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="9">
-    <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB7B7B7"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,25 +403,33 @@
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>5</v>
+      </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -427,19 +438,19 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -450,7 +461,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="15" t="s">
         <v>0</v>
       </c>
@@ -467,23 +478,23 @@
       <c r="I13" s="16"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -494,19 +505,19 @@
       <c r="I17" s="10"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -517,7 +528,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="15" t="s">
         <v>0</v>
       </c>
@@ -534,23 +545,23 @@
       <c r="I23" s="16"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="7"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -561,19 +572,19 @@
       <c r="I27" s="10"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -584,7 +595,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="15" t="s">
         <v>0</v>
       </c>
@@ -601,23 +612,23 @@
       <c r="I33" s="16"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J34" s="7"/>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="8"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="8"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -628,19 +639,19 @@
       <c r="I37" s="10"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="8"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="8"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="8"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -651,7 +662,7 @@
       <c r="I41" s="13"/>
       <c r="J41" s="14"/>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="15" t="s">
         <v>0</v>
       </c>
@@ -668,23 +679,23 @@
       <c r="I43" s="16"/>
       <c r="J43" s="18"/>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J44" s="7"/>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="8"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="8"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -695,19 +706,19 @@
       <c r="I47" s="10"/>
       <c r="J47" s="21"/>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="8"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="8"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="8"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -718,7 +729,7 @@
       <c r="I51" s="13"/>
       <c r="J51" s="14"/>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="15" t="s">
         <v>0</v>
       </c>
@@ -735,23 +746,23 @@
       <c r="I53" s="16"/>
       <c r="J53" s="18"/>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J54" s="7"/>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="8"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="8"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -762,19 +773,19 @@
       <c r="I57" s="10"/>
       <c r="J57" s="21"/>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="8"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="8"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="8"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="12"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -785,7 +796,7 @@
       <c r="I61" s="13"/>
       <c r="J61" s="14"/>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="15" t="s">
         <v>0</v>
       </c>
@@ -802,23 +813,23 @@
       <c r="I63" s="16"/>
       <c r="J63" s="18"/>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J64" s="7"/>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="8"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="8"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -829,19 +840,19 @@
       <c r="I67" s="10"/>
       <c r="J67" s="21"/>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="8"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="8"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="8"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="12"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -852,7 +863,7 @@
       <c r="I71" s="13"/>
       <c r="J71" s="14"/>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="15" t="s">
         <v>0</v>
       </c>
@@ -869,23 +880,23 @@
       <c r="I73" s="16"/>
       <c r="J73" s="18"/>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J74" s="7"/>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="8"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="8"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -896,19 +907,19 @@
       <c r="I77" s="10"/>
       <c r="J77" s="21"/>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="8"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="8"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="8"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="12"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -919,7 +930,7 @@
       <c r="I81" s="13"/>
       <c r="J81" s="14"/>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="15" t="s">
         <v>0</v>
       </c>
@@ -936,23 +947,23 @@
       <c r="I83" s="16"/>
       <c r="J83" s="18"/>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J84" s="7"/>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="8"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="8"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -963,19 +974,19 @@
       <c r="I87" s="10"/>
       <c r="J87" s="21"/>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="8"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="8"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="8"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="12"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -986,7 +997,7 @@
       <c r="I91" s="13"/>
       <c r="J91" s="14"/>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="15" t="s">
         <v>0</v>
       </c>
@@ -1003,23 +1014,23 @@
       <c r="I93" s="16"/>
       <c r="J93" s="18"/>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="7"/>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="8"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="8"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -1030,19 +1041,19 @@
       <c r="I97" s="10"/>
       <c r="J97" s="21"/>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="8"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="8"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="8"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="12"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -1053,7 +1064,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="14"/>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="15" t="s">
         <v>0</v>
       </c>
@@ -1070,23 +1081,23 @@
       <c r="I103" s="16"/>
       <c r="J103" s="18"/>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J104" s="7"/>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="8"/>
       <c r="J105" s="7"/>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="8"/>
       <c r="J106" s="7"/>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
@@ -1097,19 +1108,19 @@
       <c r="I107" s="10"/>
       <c r="J107" s="21"/>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="8"/>
       <c r="J108" s="7"/>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="8"/>
       <c r="J109" s="7"/>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="8"/>
       <c r="J110" s="7"/>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="12"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
@@ -1120,7 +1131,7 @@
       <c r="I111" s="13"/>
       <c r="J111" s="14"/>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="15" t="s">
         <v>0</v>
       </c>
@@ -1137,23 +1148,23 @@
       <c r="I113" s="16"/>
       <c r="J113" s="18"/>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J114" s="7"/>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="8"/>
       <c r="J115" s="7"/>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="8"/>
       <c r="J116" s="7"/>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -1164,19 +1175,19 @@
       <c r="I117" s="10"/>
       <c r="J117" s="21"/>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="8"/>
       <c r="J118" s="7"/>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="8"/>
       <c r="J119" s="7"/>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="8"/>
       <c r="J120" s="7"/>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="12"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
@@ -1187,7 +1198,7 @@
       <c r="I121" s="13"/>
       <c r="J121" s="14"/>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="15" t="s">
         <v>0</v>
       </c>
@@ -1204,23 +1215,23 @@
       <c r="I123" s="16"/>
       <c r="J123" s="18"/>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J124" s="7"/>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="8"/>
       <c r="J125" s="7"/>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="8"/>
       <c r="J126" s="7"/>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
@@ -1231,19 +1242,19 @@
       <c r="I127" s="10"/>
       <c r="J127" s="21"/>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="8"/>
       <c r="J128" s="7"/>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="8"/>
       <c r="J129" s="7"/>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="8"/>
       <c r="J130" s="7"/>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="12"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -1254,7 +1265,7 @@
       <c r="I131" s="13"/>
       <c r="J131" s="14"/>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="15" t="s">
         <v>0</v>
       </c>
@@ -1271,23 +1282,23 @@
       <c r="I133" s="16"/>
       <c r="J133" s="18"/>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J134" s="7"/>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="8"/>
       <c r="J135" s="7"/>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="8"/>
       <c r="J136" s="7"/>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
@@ -1298,19 +1309,19 @@
       <c r="I137" s="10"/>
       <c r="J137" s="21"/>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="8"/>
       <c r="J138" s="7"/>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="8"/>
       <c r="J139" s="7"/>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="8"/>
       <c r="J140" s="7"/>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="12"/>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
@@ -1321,7 +1332,7 @@
       <c r="I141" s="13"/>
       <c r="J141" s="14"/>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="15" t="s">
         <v>0</v>
       </c>
@@ -1338,23 +1349,23 @@
       <c r="I143" s="16"/>
       <c r="J143" s="18"/>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J144" s="7"/>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="8"/>
       <c r="J145" s="7"/>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="8"/>
       <c r="J146" s="7"/>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
@@ -1365,19 +1376,19 @@
       <c r="I147" s="10"/>
       <c r="J147" s="21"/>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="8"/>
       <c r="J148" s="7"/>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="8"/>
       <c r="J149" s="7"/>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="8"/>
       <c r="J150" s="7"/>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="12"/>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
@@ -1389,6 +1400,12 @@
       <c r="J151" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>